--- a/USHPRR/UMo_defect_relaxation_volume.xlsx
+++ b/USHPRR/UMo_defect_relaxation_volume.xlsx
@@ -8,37 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FF3323-F1B9-E149-8016-60D8C44F337A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BF0757-68F6-6C4E-9E47-F8E099661DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12860" yWindow="5680" windowWidth="31540" windowHeight="17420" xr2:uid="{E6C385B5-DE39-C74D-9E54-74BB84BFBA62}"/>
+    <workbookView xWindow="15240" yWindow="5820" windowWidth="31540" windowHeight="17420" xr2:uid="{E6C385B5-DE39-C74D-9E54-74BB84BFBA62}"/>
   </bookViews>
   <sheets>
     <sheet name="formation volume" sheetId="1" r:id="rId1"/>
     <sheet name="dipole tensor" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'formation volume'!$A$4:$A$8</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'formation volume'!$C$4:$C$8</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'dipole tensor'!$S$6:$S$10</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'dipole tensor'!$A$6:$A$10</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'dipole tensor'!$B$6:$B$10</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'dipole tensor'!$C$6:$C$10</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'dipole tensor'!$D$6:$D$10</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'dipole tensor'!$E$6:$E$10</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'dipole tensor'!$F$6:$F$10</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'dipole tensor'!$G$6:$G$10</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'dipole tensor'!$H$6:$H$10</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'dipole tensor'!$I$6:$I$10</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'dipole tensor'!$A$6:$A$10</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'dipole tensor'!$L$6:$L$10</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'dipole tensor'!$M$6:$M$10</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'dipole tensor'!$N$6:$N$10</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'dipole tensor'!$O$6:$O$10</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'dipole tensor'!$P$6:$P$10</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'dipole tensor'!$Q$6:$Q$10</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'dipole tensor'!$R$6:$R$10</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -81,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="9">
   <si>
     <t>P (eV/ang^3)</t>
   </si>
@@ -105,6 +83,9 @@
   </si>
   <si>
     <t>600K</t>
+  </si>
+  <si>
+    <t>stderr</t>
   </si>
 </sst>
 </file>
@@ -1597,6 +1578,91 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'formation volume'!$T$68:$T$75</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>5.8111539883944259</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1864683049159126</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.1464616355429862</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.7599307720130817</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.9374168880335076</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.743000017305711</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.5817260057765306</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.0107857736187498</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'formation volume'!$T$68:$T$75</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>5.8111539883944259</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1864683049159126</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.1464616355429862</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.7599307720130817</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.9374168880335076</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.743000017305711</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.5817260057765306</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.0107857736187498</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>'formation volume'!$B$68:$B$75</c:f>
@@ -3029,6 +3095,373 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12586503494292128"/>
+                  <c:y val="-0.35905685502547474"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'formation volume'!$N$4:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1210986267166045E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.242197253433209E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.1210986267166045E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.242197253433209E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'formation volume'!$P$4:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.1126915729790738</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0366230293979299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0066693959799977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1607009289824788</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2254159642198488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6FE0-EB4D-AE4B-C83FDF0F2942}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="461460944"/>
+        <c:axId val="839823216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="461460944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="839823216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="839823216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="461460944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -3624,7 +4057,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4479,7 +4912,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5334,7 +5767,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6263,6 +6696,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -9876,6 +10349,522 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10536,6 +11525,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36018CD3-2A42-819D-2081-40FF392C2CCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10700,9 +11725,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -10740,7 +11765,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -10846,7 +11871,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10988,7 +12013,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10996,10 +12021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8B4969-AEE9-8246-8A8C-B6657B0C25D5}">
-  <dimension ref="A1:V75"/>
+  <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C65" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11423,6 +12448,16 @@
       <c r="P10">
         <v>2.6311069970837302</v>
       </c>
+      <c r="Q10">
+        <v>5.8111539883944259</v>
+      </c>
+      <c r="R10" cm="1">
+        <f t="array" ref="R10:S14">LINEST(V4:V8,N4:N8,TRUE, TRUE)</f>
+        <v>-3.0737975088309626</v>
+      </c>
+      <c r="S10">
+        <v>3.0749343895976677</v>
+      </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11">
@@ -11445,6 +12480,15 @@
       <c r="P11">
         <v>2.1084201783118659</v>
       </c>
+      <c r="Q11">
+        <v>1.1864683049159126</v>
+      </c>
+      <c r="R11">
+        <v>2.0107857736187498</v>
+      </c>
+      <c r="S11">
+        <v>8.8754073410690151E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12">
@@ -11467,6 +12511,15 @@
       <c r="P12">
         <v>1.9525127458725535</v>
       </c>
+      <c r="Q12">
+        <v>2.1464616355429862</v>
+      </c>
+      <c r="R12">
+        <v>0.43786388942947635</v>
+      </c>
+      <c r="S12">
+        <v>1.9846014142630979E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13">
@@ -11489,6 +12542,15 @@
       <c r="P13">
         <v>1.9307132770716635</v>
       </c>
+      <c r="Q13">
+        <v>1.7599307720130817</v>
+      </c>
+      <c r="R13">
+        <v>2.3367857776566558</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B14">
@@ -11511,6 +12573,15 @@
       <c r="P14">
         <v>2.1303054457298232</v>
       </c>
+      <c r="Q14">
+        <v>1.9374168880335076</v>
+      </c>
+      <c r="R14">
+        <v>9.2037644163734875E-4</v>
+      </c>
+      <c r="S14">
+        <v>1.1815928320485264E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B15">
@@ -11533,6 +12604,9 @@
       <c r="P15">
         <v>2.4141965640245644</v>
       </c>
+      <c r="Q15">
+        <v>3.743000017305711</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B16">
@@ -11555,6 +12629,9 @@
       <c r="P16">
         <v>2.7012794358933663</v>
       </c>
+      <c r="Q16">
+        <v>2.5817260057765306</v>
+      </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B17">
@@ -11577,6 +12654,9 @@
       <c r="P17">
         <v>3.0749343895976677</v>
       </c>
+      <c r="Q17">
+        <v>2.0107857736187498</v>
+      </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -11933,6 +13013,16 @@
       <c r="P26">
         <v>2.3312340035130945</v>
       </c>
+      <c r="Q26">
+        <v>2.9670700562758832</v>
+      </c>
+      <c r="R26" cm="1">
+        <f t="array" ref="R26:S30">LINEST(V20:V24,N20:N24,TRUE, TRUE)</f>
+        <v>-5.2789265721064291</v>
+      </c>
+      <c r="S26">
+        <v>3.0176587936909072</v>
+      </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B27">
@@ -11955,6 +13045,15 @@
       <c r="P27">
         <v>1.8999833444637602</v>
       </c>
+      <c r="Q27">
+        <v>2.3911427074767491</v>
+      </c>
+      <c r="R27">
+        <v>2.7003016761896967</v>
+      </c>
+      <c r="S27">
+        <v>1.1918861588533931E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B28">
@@ -11977,6 +13076,15 @@
       <c r="P28">
         <v>1.8018238500545862</v>
       </c>
+      <c r="Q28">
+        <v>1.34590202609377</v>
+      </c>
+      <c r="R28">
+        <v>0.56023264008742946</v>
+      </c>
+      <c r="S28">
+        <v>2.6651384726372997E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B29">
@@ -11999,6 +13107,15 @@
       <c r="P29">
         <v>1.8380823601367751</v>
       </c>
+      <c r="Q29">
+        <v>0.59747854680694545</v>
+      </c>
+      <c r="R29">
+        <v>3.8217886852640115</v>
+      </c>
+      <c r="S29">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B30">
@@ -12021,6 +13138,15 @@
       <c r="P30">
         <v>2.1467040989444968</v>
       </c>
+      <c r="Q30">
+        <v>1.4871122878170449</v>
+      </c>
+      <c r="R30">
+        <v>2.7146023924615277E-3</v>
+      </c>
+      <c r="S30">
+        <v>2.1308889234994436E-3</v>
+      </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B31">
@@ -12043,6 +13169,9 @@
       <c r="P31">
         <v>2.4315368846755065</v>
       </c>
+      <c r="Q31">
+        <v>2.292466135305371</v>
+      </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B32">
@@ -12065,6 +13194,9 @@
       <c r="P32">
         <v>2.6605738035745388</v>
       </c>
+      <c r="Q32">
+        <v>1.0779695940380418</v>
+      </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B33">
@@ -12087,6 +13219,9 @@
       <c r="P33">
         <v>3.0176587936909072</v>
       </c>
+      <c r="Q33">
+        <v>2.7003016761896967</v>
+      </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -12443,6 +13578,16 @@
       <c r="P42">
         <v>2.1615569114426556</v>
       </c>
+      <c r="Q42">
+        <v>2.5667916844919119</v>
+      </c>
+      <c r="R42" cm="1">
+        <f t="array" ref="R42:S46">LINEST(V36:V40,N36:N40,TRUE, TRUE)</f>
+        <v>-6.0593627047414129</v>
+      </c>
+      <c r="S42">
+        <v>2.9700499289351283</v>
+      </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B43">
@@ -12465,6 +13610,15 @@
       <c r="P43">
         <v>1.7171421561697173</v>
       </c>
+      <c r="Q43">
+        <v>2.9149827547535034</v>
+      </c>
+      <c r="R43">
+        <v>1.487292019488049</v>
+      </c>
+      <c r="S43">
+        <v>6.564758255834172E-3</v>
+      </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B44">
@@ -12487,6 +13641,15 @@
       <c r="P44">
         <v>1.6696599130671814</v>
       </c>
+      <c r="Q44">
+        <v>1.936258072318348</v>
+      </c>
+      <c r="R44">
+        <v>0.84692484011806168</v>
+      </c>
+      <c r="S44">
+        <v>1.4679245715898164E-2</v>
+      </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B45">
@@ -12509,6 +13672,15 @@
       <c r="P45">
         <v>1.763438849321028</v>
       </c>
+      <c r="Q45">
+        <v>1.0986959411349166</v>
+      </c>
+      <c r="R45">
+        <v>16.598215689036671</v>
+      </c>
+      <c r="S45">
+        <v>3</v>
+      </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B46">
@@ -12531,6 +13703,15 @@
       <c r="P46">
         <v>2.1513969871361724</v>
       </c>
+      <c r="Q46">
+        <v>0.8340785070091119</v>
+      </c>
+      <c r="R46">
+        <v>3.5765877456950639E-3</v>
+      </c>
+      <c r="S46">
+        <v>6.4644076436314382E-4</v>
+      </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B47">
@@ -12553,6 +13734,9 @@
       <c r="P47">
         <v>2.4183192596965002</v>
       </c>
+      <c r="Q47">
+        <v>0.97033271543068467</v>
+      </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B48">
@@ -12575,6 +13759,9 @@
       <c r="P48">
         <v>2.6263927083057981</v>
       </c>
+      <c r="Q48">
+        <v>0.91144196085043017</v>
+      </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B49">
@@ -12597,6 +13784,9 @@
       <c r="P49">
         <v>2.9700499289351283</v>
       </c>
+      <c r="Q49">
+        <v>1.487292019488049</v>
+      </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -12953,6 +14143,16 @@
       <c r="P58">
         <v>1.9986098250522812</v>
       </c>
+      <c r="Q58">
+        <v>2.2658049516461833</v>
+      </c>
+      <c r="R58" cm="1">
+        <f t="array" ref="R58:S62">LINEST(V52:V56,N52:N56,TRUE, TRUE)</f>
+        <v>-3.3444359608502738</v>
+      </c>
+      <c r="S58">
+        <v>2.9396053717215174</v>
+      </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B59">
@@ -12975,6 +14175,15 @@
       <c r="P59">
         <v>1.5688024160937999</v>
       </c>
+      <c r="Q59">
+        <v>0.95637830182601302</v>
+      </c>
+      <c r="R59">
+        <v>0.69236214304174593</v>
+      </c>
+      <c r="S59">
+        <v>3.0560172683000561E-3</v>
+      </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B60">
@@ -12997,6 +14206,15 @@
       <c r="P60">
         <v>1.5901506195108879</v>
       </c>
+      <c r="Q60">
+        <v>1.1576368531006664</v>
+      </c>
+      <c r="R60">
+        <v>0.88607649714791803</v>
+      </c>
+      <c r="S60">
+        <v>6.8334623523321385E-3</v>
+      </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B61">
@@ -13019,6 +14237,15 @@
       <c r="P61">
         <v>1.7225364747869834</v>
       </c>
+      <c r="Q61">
+        <v>1.4922998206793858</v>
+      </c>
+      <c r="R61">
+        <v>23.33345995246647</v>
+      </c>
+      <c r="S61">
+        <v>3</v>
+      </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B62">
@@ -13041,6 +14268,15 @@
       <c r="P62">
         <v>2.1430268892956179</v>
       </c>
+      <c r="Q62">
+        <v>1.2073936065517579</v>
+      </c>
+      <c r="R62">
+        <v>1.0895840927839585E-3</v>
+      </c>
+      <c r="S62">
+        <v>1.4008862316222206E-4</v>
+      </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B63">
@@ -13063,6 +14299,9 @@
       <c r="P63">
         <v>2.3938601797462979</v>
       </c>
+      <c r="Q63">
+        <v>1.8721749027237637</v>
+      </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B64">
@@ -13085,8 +14324,11 @@
       <c r="P64">
         <v>2.5781683935627369</v>
       </c>
+      <c r="Q64">
+        <v>0.62139879757697414</v>
+      </c>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>1</v>
       </c>
@@ -13107,8 +14349,19 @@
       <c r="P65">
         <v>2.9396053717215174</v>
       </c>
+      <c r="Q65">
+        <v>0.69236214304174593</v>
+      </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="H66" t="s">
+        <v>8</v>
+      </c>
+      <c r="T66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67">
         <v>1200</v>
       </c>
@@ -13133,8 +14386,20 @@
       <c r="R67">
         <v>600</v>
       </c>
+      <c r="T67">
+        <v>1200</v>
+      </c>
+      <c r="U67">
+        <v>1000</v>
+      </c>
+      <c r="V67">
+        <v>800</v>
+      </c>
+      <c r="W67">
+        <v>600</v>
+      </c>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>0</v>
       </c>
@@ -13165,8 +14430,20 @@
       <c r="R68">
         <v>-6.2699498101952464</v>
       </c>
+      <c r="T68">
+        <v>5.8111539883944259</v>
+      </c>
+      <c r="U68">
+        <v>2.9670700562758832</v>
+      </c>
+      <c r="V68">
+        <v>2.5667916844919119</v>
+      </c>
+      <c r="W68">
+        <v>2.2658049516461833</v>
+      </c>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>0.12</v>
       </c>
@@ -13197,8 +14474,20 @@
       <c r="R69">
         <v>-19.286045865769477</v>
       </c>
+      <c r="T69">
+        <v>1.1864683049159126</v>
+      </c>
+      <c r="U69">
+        <v>2.3911427074767491</v>
+      </c>
+      <c r="V69">
+        <v>2.9149827547535034</v>
+      </c>
+      <c r="W69">
+        <v>0.95637830182601302</v>
+      </c>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>0.22</v>
       </c>
@@ -13229,8 +14518,20 @@
       <c r="R70">
         <v>-11.608258483099872</v>
       </c>
+      <c r="T70">
+        <v>2.1464616355429862</v>
+      </c>
+      <c r="U70">
+        <v>1.34590202609377</v>
+      </c>
+      <c r="V70">
+        <v>1.936258072318348</v>
+      </c>
+      <c r="W70">
+        <v>1.1576368531006664</v>
+      </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>0.3</v>
       </c>
@@ -13261,8 +14562,20 @@
       <c r="R71">
         <v>-6.4460080605367809</v>
       </c>
+      <c r="T71">
+        <v>1.7599307720130817</v>
+      </c>
+      <c r="U71">
+        <v>0.59747854680694545</v>
+      </c>
+      <c r="V71">
+        <v>1.0986959411349166</v>
+      </c>
+      <c r="W71">
+        <v>1.4922998206793858</v>
+      </c>
     </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>0.52</v>
       </c>
@@ -13293,8 +14606,20 @@
       <c r="R72">
         <v>-5.6821385093476362</v>
       </c>
+      <c r="T72">
+        <v>1.9374168880335076</v>
+      </c>
+      <c r="U72">
+        <v>1.4871122878170449</v>
+      </c>
+      <c r="V72">
+        <v>0.8340785070091119</v>
+      </c>
+      <c r="W72">
+        <v>1.2073936065517579</v>
+      </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>0.71</v>
       </c>
@@ -13325,8 +14650,20 @@
       <c r="R73">
         <v>-4.7414574855383744</v>
       </c>
+      <c r="T73">
+        <v>3.743000017305711</v>
+      </c>
+      <c r="U73">
+        <v>2.292466135305371</v>
+      </c>
+      <c r="V73">
+        <v>0.97033271543068467</v>
+      </c>
+      <c r="W73">
+        <v>1.8721749027237637</v>
+      </c>
     </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>0.85</v>
       </c>
@@ -13357,8 +14694,20 @@
       <c r="R74">
         <v>-4.6724261981333353</v>
       </c>
+      <c r="T74">
+        <v>2.5817260057765306</v>
+      </c>
+      <c r="U74">
+        <v>1.0779695940380418</v>
+      </c>
+      <c r="V74">
+        <v>0.91144196085043017</v>
+      </c>
+      <c r="W74">
+        <v>0.62139879757697414</v>
+      </c>
     </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>1</v>
       </c>
@@ -13388,6 +14737,18 @@
       </c>
       <c r="R75">
         <v>-3.3444359608502738</v>
+      </c>
+      <c r="T75">
+        <v>2.0107857736187498</v>
+      </c>
+      <c r="U75">
+        <v>2.7003016761896967</v>
+      </c>
+      <c r="V75">
+        <v>1.487292019488049</v>
+      </c>
+      <c r="W75">
+        <v>0.69236214304174593</v>
       </c>
     </row>
   </sheetData>

--- a/USHPRR/UMo_defect_relaxation_volume.xlsx
+++ b/USHPRR/UMo_defect_relaxation_volume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BF0757-68F6-6C4E-9E47-F8E099661DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729BB22A-1FB8-434A-8701-1D3EFE0A7093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15240" yWindow="5820" windowWidth="31540" windowHeight="17420" xr2:uid="{E6C385B5-DE39-C74D-9E54-74BB84BFBA62}"/>
+    <workbookView xWindow="1320" yWindow="2740" windowWidth="31540" windowHeight="17420" xr2:uid="{E6C385B5-DE39-C74D-9E54-74BB84BFBA62}"/>
   </bookViews>
   <sheets>
     <sheet name="formation volume" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -12023,8 +12023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8B4969-AEE9-8246-8A8C-B6657B0C25D5}">
   <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14761,8 +14761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F413C775-EDBC-4442-AEE1-A262CA73F074}">
   <dimension ref="A3:S34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/USHPRR/UMo_defect_relaxation_volume.xlsx
+++ b/USHPRR/UMo_defect_relaxation_volume.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729BB22A-1FB8-434A-8701-1D3EFE0A7093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D84DAC9-FF14-6545-A34A-F8C05728F1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="2740" windowWidth="31540" windowHeight="17420" xr2:uid="{E6C385B5-DE39-C74D-9E54-74BB84BFBA62}"/>
+    <workbookView xWindow="1300" yWindow="6160" windowWidth="35560" windowHeight="17420" activeTab="2" xr2:uid="{E6C385B5-DE39-C74D-9E54-74BB84BFBA62}"/>
   </bookViews>
   <sheets>
-    <sheet name="formation volume" sheetId="1" r:id="rId1"/>
-    <sheet name="dipole tensor" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="formation volume" sheetId="1" r:id="rId2"/>
+    <sheet name="dipole tensor" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'formation volume'!$Y$10</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -59,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>P (eV/ang^3)</t>
   </si>
@@ -87,12 +98,93 @@
   <si>
     <t>stderr</t>
   </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>vac</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -107,6 +199,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -116,7 +216,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -124,13 +224,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,21 +985,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'formation volume'!$C$69:$F$69</c:f>
+              <c:f>'formation volume'!$C$68:$F$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.8971973315999957</c:v>
+                  <c:v>6.7221342576000023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.261606135232352</c:v>
+                  <c:v>3.747845426696744</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4149017526229448</c:v>
+                  <c:v>-9.5096042381599553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.7333007862074084</c:v>
+                  <c:v>-16.790714084738429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -932,21 +1061,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'formation volume'!$C$70:$F$70</c:f>
+              <c:f>'formation volume'!$C$69:$F$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.6185316743999962</c:v>
+                  <c:v>9.8971973315999957</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.437235378593794</c:v>
+                  <c:v>13.261606135232352</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.7958194688752176</c:v>
+                  <c:v>7.4149017526229448</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.3290239187963415</c:v>
+                  <c:v>8.7333007862074084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1008,21 +1137,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'formation volume'!$C$71:$F$71</c:f>
+              <c:f>'formation volume'!$C$70:$F$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>15.7922157852</c:v>
+                  <c:v>9.6185316743999962</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.925810656511739</c:v>
+                  <c:v>12.437235378593794</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.326406806444314</c:v>
+                  <c:v>8.7958194688752176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.35243686456575</c:v>
+                  <c:v>9.3290239187963415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1084,21 +1213,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'formation volume'!$C$72:$F$72</c:f>
+              <c:f>'formation volume'!$C$71:$F$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>25.746042214799999</c:v>
+                  <c:v>15.7922157852</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.465558414610893</c:v>
+                  <c:v>15.925810656511739</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.743550636922844</c:v>
+                  <c:v>14.326406806444314</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.579198991737801</c:v>
+                  <c:v>16.35243686456575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1160,21 +1289,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'formation volume'!$C$73:$F$73</c:f>
+              <c:f>'formation volume'!$C$72:$F$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>28.385046611999996</c:v>
+                  <c:v>25.746042214799999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.336927954848239</c:v>
+                  <c:v>29.465558414610893</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.930236881546346</c:v>
+                  <c:v>24.743550636922844</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.901873643204269</c:v>
+                  <c:v>25.579198991737801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1236,21 +1365,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'formation volume'!$C$74:$F$74</c:f>
+              <c:f>'formation volume'!$C$73:$F$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>24.70664571119999</c:v>
+                  <c:v>28.385046611999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.060004714301485</c:v>
+                  <c:v>24.336927954848239</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.283189457195682</c:v>
+                  <c:v>25.930236881546346</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.145861171931568</c:v>
+                  <c:v>26.901873643204269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1318,21 +1447,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'formation volume'!$C$75:$F$75</c:f>
+              <c:f>'formation volume'!$C$74:$F$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>28.872248774399999</c:v>
+                  <c:v>24.70664571119999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.954533877091752</c:v>
+                  <c:v>25.060004714301485</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.124654122193459</c:v>
+                  <c:v>27.283189457195682</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.350917595382779</c:v>
+                  <c:v>27.145861171931568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1341,6 +1470,88 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-18E0-AD43-9F7A-D1364A1CF47C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'formation volume'!$C$67:$F$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'formation volume'!$C$75:$F$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>28.872248774399999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.954533877091752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.124654122193459</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.350917595382779</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2311-9146-98F1-194DC6D96449}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1863,6 +2074,91 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'formation volume'!$V$68:$V$75</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>2.5667916844919119</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.9149827547535034</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.936258072318348</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.0986959411349166</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.8340785070091119</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.97033271543068467</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.91144196085043017</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.487292019488049</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'formation volume'!$V$68:$V$75</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>2.5667916844919119</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.9149827547535034</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.936258072318348</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.0986959411349166</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.8340785070091119</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.97033271543068467</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.91144196085043017</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.487292019488049</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>'formation volume'!$B$68:$B$75</c:f>
@@ -4102,6 +4398,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.3298337707786519E-3"/>
+                  <c:y val="9.179461942257218E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'dipole tensor'!$A$6:$A$10</c:f>
@@ -12020,11 +12366,237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F71C4D6-1AE6-7447-A072-674A9D9C293F}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.84518796504250548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.71434269625269153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.61912359500358871</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5.735481409893281E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2.4678700283107469E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2.4678700283107469E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>7.5020945050079657</v>
+      </c>
+      <c r="F12" s="2">
+        <v>7.1398596972900907E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9.8687241009694261E-3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3.2895747003231419E-3</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3.4547424384076895E-2</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2.6311069970837302</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2.5649852632415423E-2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>102.57786018460884</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.0424962770474888E-6</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2.549477718342628</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2.7127362758248323</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2.549477718342628</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2.7127362758248323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3">
+        <v>-15.916722667856989</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5.8111539883944259</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-2.7389951633779797</v>
+      </c>
+      <c r="E18" s="3">
+        <v>7.1398596972900907E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-34.410408207657518</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2.5769628719435413</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-34.410408207657518</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2.5769628719435413</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8B4969-AEE9-8246-8A8C-B6657B0C25D5}">
-  <dimension ref="A1:W75"/>
+  <dimension ref="A1:Z75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12032,7 +12604,7 @@
     <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -12040,7 +12612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -12048,7 +12620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -12107,7 +12679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -12171,7 +12743,7 @@
         <v>3.0626860697042244</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -12235,7 +12807,7 @@
         <v>3.0683173924928213</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10</v>
       </c>
@@ -12299,7 +12871,7 @@
         <v>3.0526851038607727</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-5</v>
       </c>
@@ -12363,7 +12935,7 @@
         <v>3.1123429118105013</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-10</v>
       </c>
@@ -12427,7 +12999,7 @@
         <v>3.078640470120019</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>0</v>
       </c>
@@ -12458,8 +13030,15 @@
       <c r="S10">
         <v>3.0749343895976677</v>
       </c>
+      <c r="Y10" cm="1">
+        <f t="array" ref="Y10:Z10">LINEST(O4:O8,N4:N8)</f>
+        <v>-15.916722667856989</v>
+      </c>
+      <c r="Z10">
+        <v>2.6311069970837302</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>0.12</v>
       </c>
@@ -12490,7 +13069,7 @@
         <v>8.8754073410690151E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>0.22</v>
       </c>
@@ -12521,7 +13100,7 @@
         <v>1.9846014142630979E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>0.3</v>
       </c>
@@ -12552,7 +13131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>0.52</v>
       </c>
@@ -12583,7 +13162,7 @@
         <v>1.1815928320485264E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>0.71</v>
       </c>
@@ -12608,7 +13187,7 @@
         <v>3.743000017305711</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>0.85</v>
       </c>
@@ -14757,17 +15336,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F413C775-EDBC-4442-AEE1-A262CA73F074}">
-  <dimension ref="A3:S34"/>
+  <dimension ref="A3:Z34"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -14775,15 +15354,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="L4" t="s">
         <v>3</v>
       </c>
+      <c r="V4">
+        <v>1200</v>
+      </c>
+      <c r="W4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -14839,7 +15427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -14894,8 +15482,25 @@
       <c r="S6">
         <v>-2.0823076657564341</v>
       </c>
+      <c r="V6" s="6">
+        <v>0</v>
+      </c>
+      <c r="W6" s="6" cm="1">
+        <f t="array" ref="W6:X6">LINEST(B6:B10,A6:A10)</f>
+        <v>9.8563562641549116E-3</v>
+      </c>
+      <c r="X6" s="6">
+        <v>3.8008243045852388</v>
+      </c>
+      <c r="Y6" s="6" cm="1">
+        <f t="array" ref="Y6:Z6">LINEST(L$6:L$10,$A$6:$A$10)</f>
+        <v>-3.6543100395607903E-2</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>-2.5320259672183929</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -14950,8 +15555,25 @@
       <c r="S7">
         <v>-2.1064387055167906</v>
       </c>
+      <c r="V7" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="W7" s="6" cm="1">
+        <f t="array" ref="W7:X7">LINEST(C$6:C$10,$A$6:$A$10)</f>
+        <v>2.1936239464750651E-2</v>
+      </c>
+      <c r="X7" s="6">
+        <v>4.7444936177981116</v>
+      </c>
+      <c r="Y7" s="6" cm="1">
+        <f t="array" ref="Y7:Z7">LINEST(M$6:M$10,$A$6:$A$10)</f>
+        <v>-1.3199895075402975E-2</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>-2.4603790288435001</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10</v>
       </c>
@@ -15006,8 +15628,25 @@
       <c r="S8">
         <v>-2.1542082563185816</v>
       </c>
+      <c r="V8" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="W8" s="6" cm="1">
+        <f t="array" ref="W8:X8">LINEST(D$6:D$10,$A$6:$A$10)</f>
+        <v>2.0045389601622558E-2</v>
+      </c>
+      <c r="X8" s="6">
+        <v>5.5432039222290159</v>
+      </c>
+      <c r="Y8" s="6" cm="1">
+        <f t="array" ref="Y8:Z8">LINEST(N$6:N$10,$A$6:$A$10)</f>
+        <v>-1.1133961749623507E-2</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>-2.3734175318894217</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-5</v>
       </c>
@@ -15062,8 +15701,25 @@
       <c r="S9">
         <v>-1.9573986700422883</v>
       </c>
+      <c r="V9" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="W9" s="6" cm="1">
+        <f t="array" ref="W9:X9">LINEST(E$6:E$10,$A$6:$A$10)</f>
+        <v>2.3011979780358266E-2</v>
+      </c>
+      <c r="X9" s="6">
+        <v>6.2107339837926876</v>
+      </c>
+      <c r="Y9" s="6" cm="1">
+        <f t="array" ref="Y9:Z9">LINEST(O$6:O$10,$A$6:$A$10)</f>
+        <v>-1.1275924870714951E-2</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>-2.3618537795914767</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-10</v>
       </c>
@@ -15118,16 +15774,69 @@
       <c r="S10">
         <v>-2.029017596818731</v>
       </c>
+      <c r="V10" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="W10" s="6" cm="1">
+        <f t="array" ref="W10:X10">LINEST(F$6:F$10,$A$6:$A$10)</f>
+        <v>2.3775801176341246E-2</v>
+      </c>
+      <c r="X10" s="6">
+        <v>8.496963391822689</v>
+      </c>
+      <c r="Y10" s="6" cm="1">
+        <f t="array" ref="Y10:Z10">LINEST(P$6:P$10,$A$6:$A$10)</f>
+        <v>-1.6731271189927868E-2</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>-2.5775445181094807</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="V11" s="6">
+        <v>0.71</v>
+      </c>
+      <c r="W11" s="6" cm="1">
+        <f t="array" ref="W11:X11">LINEST(G$6:G$10,$A$6:$A$10)</f>
+        <v>1.1806877587229536E-2</v>
+      </c>
+      <c r="X11" s="6">
+        <v>10.325692875753598</v>
+      </c>
+      <c r="Y11" s="6" cm="1">
+        <f t="array" ref="Y11:Z11">LINEST(Q$6:Q$10,$A$6:$A$10)</f>
+        <v>-1.3867757281166038E-2</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>-2.7762000807547813</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="L12" t="s">
         <v>5</v>
       </c>
+      <c r="V12" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="W12" s="6" cm="1">
+        <f t="array" ref="W12:X12">LINEST(H$6:H$10,$A$6:$A$10)</f>
+        <v>1.2662546551493072E-2</v>
+      </c>
+      <c r="X12" s="6">
+        <v>11.319652803667498</v>
+      </c>
+      <c r="Y12" s="6" cm="1">
+        <f t="array" ref="Y12:Z12">LINEST(R$6:R$10,$A$6:$A$10)</f>
+        <v>-1.1449158051551564E-2</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>-2.612677211023668</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -15182,8 +15891,25 @@
       <c r="S13">
         <v>1</v>
       </c>
+      <c r="V13" s="6">
+        <v>1</v>
+      </c>
+      <c r="W13" s="6" cm="1">
+        <f t="array" ref="W13:X13">LINEST(I$6:I$10,$A$6:$A$10)</f>
+        <v>1.2065226187725995E-2</v>
+      </c>
+      <c r="X13" s="6">
+        <v>13.029222632776589</v>
+      </c>
+      <c r="Y13" s="6" cm="1">
+        <f t="array" ref="Y13:Z13">LINEST(S$6:S$10,$A$6:$A$10)</f>
+        <v>-7.9884270894840757E-3</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>-2.065874178890565</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -15238,8 +15964,13 @@
       <c r="S14">
         <v>-2.0675007514945074</v>
       </c>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -15294,8 +16025,19 @@
       <c r="S15">
         <v>-2.1343414754721781</v>
       </c>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6">
+        <f>AVERAGE(W6:W13)</f>
+        <v>1.6895052076709528E-2</v>
+      </c>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6">
+        <f>AVERAGE(Y6:Y13)</f>
+        <v>-1.5273686962934864E-2</v>
+      </c>
+      <c r="Z15" s="6"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10</v>
       </c>
@@ -15350,8 +16092,13 @@
       <c r="S16">
         <v>-2.2048206662493843</v>
       </c>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-5</v>
       </c>
@@ -15406,8 +16153,19 @@
       <c r="S17">
         <v>-2.0097577796647075</v>
       </c>
+      <c r="V17" s="6">
+        <v>600</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z17" s="6"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-10</v>
       </c>
@@ -15462,16 +16220,57 @@
       <c r="S18">
         <v>-2.0039307589565438</v>
       </c>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="V19" s="6">
+        <v>0</v>
+      </c>
+      <c r="W19" s="6" cm="1">
+        <f t="array" ref="W19:X19">LINEST(B$30:B$34,$A$30:$A$34)</f>
+        <v>-7.8572240902262201E-3</v>
+      </c>
+      <c r="X19" s="6">
+        <v>2.6089102798354666</v>
+      </c>
+      <c r="Y19" s="6" cm="1">
+        <f t="array" ref="Y19:Z19">LINEST(L$30:L$34,$A$30:$A$34)</f>
+        <v>-7.2278931023643564E-2</v>
+      </c>
+      <c r="Z19" s="6">
+        <v>-2.2476834515602588</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="L20" t="s">
         <v>6</v>
       </c>
+      <c r="V20" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="W20" s="6" cm="1">
+        <f t="array" ref="W20:X20">LINEST(C$30:C$34,$A$30:$A$34)</f>
+        <v>2.4569576191792133E-2</v>
+      </c>
+      <c r="X20" s="6">
+        <v>3.3748630070965149</v>
+      </c>
+      <c r="Y20" s="6" cm="1">
+        <f t="array" ref="Y20:Z20">LINEST(M$30:M$34,$A$30:$A$34)</f>
+        <v>-1.4027458621788098E-2</v>
+      </c>
+      <c r="Z20" s="6">
+        <v>-2.9743679182844853</v>
+      </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -15526,8 +16325,25 @@
       <c r="S21">
         <v>1</v>
       </c>
+      <c r="V21" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="W21" s="6" cm="1">
+        <f t="array" ref="W21:X21">LINEST(D$30:D$34,$A$30:$A$34)</f>
+        <v>2.9644143651536229E-2</v>
+      </c>
+      <c r="X21" s="6">
+        <v>4.6627270093351196</v>
+      </c>
+      <c r="Y21" s="6" cm="1">
+        <f t="array" ref="Y21:Z21">LINEST(N$30:N$34,$A$30:$A$34)</f>
+        <v>-6.9103618031381682E-3</v>
+      </c>
+      <c r="Z21" s="6">
+        <v>-2.5312686150193846</v>
+      </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
@@ -15582,8 +16398,25 @@
       <c r="S22">
         <v>-2.0921482833895646</v>
       </c>
+      <c r="V22" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="W22" s="6" cm="1">
+        <f t="array" ref="W22:X22">LINEST(E$30:E$34,$A$30:$A$34)</f>
+        <v>3.1052040418446725E-2</v>
+      </c>
+      <c r="X22" s="6">
+        <v>5.9405391973176505</v>
+      </c>
+      <c r="Y22" s="6" cm="1">
+        <f t="array" ref="Y22:Z22">LINEST(O$30:O$34,$A$30:$A$34)</f>
+        <v>-9.835233814286231E-3</v>
+      </c>
+      <c r="Z22" s="6">
+        <v>-2.3824652163505369</v>
+      </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -15638,8 +16471,25 @@
       <c r="S23">
         <v>-2.1635988709355982</v>
       </c>
+      <c r="V23" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="W23" s="6" cm="1">
+        <f t="array" ref="W23:X23">LINEST(F$30:F$34,$A$30:$A$34)</f>
+        <v>2.6181204504806561E-2</v>
+      </c>
+      <c r="X23" s="6">
+        <v>9.80145322635558</v>
+      </c>
+      <c r="Y23" s="6" cm="1">
+        <f t="array" ref="Y23:Z23">LINEST(P$30:P$34,$A$30:$A$34)</f>
+        <v>-1.642480504670514E-2</v>
+      </c>
+      <c r="Z23" s="6">
+        <v>-2.6609001387694158</v>
+      </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10</v>
       </c>
@@ -15694,8 +16544,25 @@
       <c r="S24">
         <v>-2.2511494830333501</v>
       </c>
+      <c r="V24" s="6">
+        <v>0.71</v>
+      </c>
+      <c r="W24" s="6" cm="1">
+        <f t="array" ref="W24:X24">LINEST(G$30:G$34,$A$30:$A$34)</f>
+        <v>7.7570817037625178E-3</v>
+      </c>
+      <c r="X24" s="6">
+        <v>11.711308191935512</v>
+      </c>
+      <c r="Y24" s="6" cm="1">
+        <f t="array" ref="Y24:Z24">LINEST(Q$30:Q$34,$A$30:$A$34)</f>
+        <v>-1.0948395289141327E-2</v>
+      </c>
+      <c r="Z24" s="6">
+        <v>-2.9572423890184059</v>
+      </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-5</v>
       </c>
@@ -15750,8 +16617,25 @@
       <c r="S25">
         <v>-2.0516465627052902</v>
       </c>
+      <c r="V25" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="W25" s="6" cm="1">
+        <f t="array" ref="W25:X25">LINEST(H$30:H$34,$A$30:$A$34)</f>
+        <v>1.0011490898758349E-2</v>
+      </c>
+      <c r="X25" s="6">
+        <v>12.383179143223806</v>
+      </c>
+      <c r="Y25" s="6" cm="1">
+        <f t="array" ref="Y25:Z25">LINEST(R$30:R$34,$A$30:$A$34)</f>
+        <v>-8.7636336012856825E-3</v>
+      </c>
+      <c r="Z25" s="6">
+        <v>-2.7668802749216708</v>
+      </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-10</v>
       </c>
@@ -15806,16 +16690,41 @@
       <c r="S26">
         <v>-2.0211393231300403</v>
       </c>
+      <c r="V26" s="6">
+        <v>1</v>
+      </c>
+      <c r="W26" s="6" cm="1">
+        <f t="array" ref="W26:X26">LINEST(I$30:I$34,$A$30:$A$34)</f>
+        <v>1.0423468893522846E-2</v>
+      </c>
+      <c r="X26" s="6">
+        <v>13.958746343622053</v>
+      </c>
+      <c r="Y26" s="6" cm="1">
+        <f t="array" ref="Y26:Z26">LINEST(S$30:S$34,$A$30:$A$34)</f>
+        <v>-6.6293593756430172E-3</v>
+      </c>
+      <c r="Z26" s="6">
+        <v>-2.1043832148392863</v>
+      </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>7</v>
       </c>
       <c r="L28" t="s">
         <v>7</v>
       </c>
+      <c r="W28">
+        <f>AVERAGE(W19:W26)</f>
+        <v>1.6472722771549892E-2</v>
+      </c>
+      <c r="Y28">
+        <f>AVERAGE(Y19:Y26)</f>
+        <v>-1.8227272321953904E-2</v>
+      </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -15871,7 +16780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0</v>
       </c>
@@ -15927,7 +16836,7 @@
         <v>-2.119093654357505</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
@@ -15982,8 +16891,16 @@
       <c r="S31">
         <v>-2.1386780768923352</v>
       </c>
+      <c r="W31">
+        <f>AVERAGE(W28,W15)</f>
+        <v>1.6683887424129712E-2</v>
+      </c>
+      <c r="Y31">
+        <f>AVERAGE(Y28,Y15)</f>
+        <v>-1.6750479642444385E-2</v>
+      </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>10</v>
       </c>
@@ -16039,7 +16956,7 @@
         <v>-2.1645918562916502</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>-5</v>
       </c>
@@ -16094,8 +17011,12 @@
       <c r="S33">
         <v>-2.062711152616397</v>
       </c>
+      <c r="X33">
+        <f>(W31-Y31)/2</f>
+        <v>1.671718353328705E-2</v>
+      </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>-10</v>
       </c>
@@ -16149,6 +17070,10 @@
       </c>
       <c r="S34">
         <v>-2.0368413340385438</v>
+      </c>
+      <c r="X34">
+        <f>X33*20</f>
+        <v>0.334343670665741</v>
       </c>
     </row>
   </sheetData>
